--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -1831,7 +1831,7 @@
     <t>CO JACAREI 03</t>
   </si>
   <si>
-    <t>rms.jci@jadlog.com.br,mvrobertomsantos@gmail.com</t>
+    <t>rms.jci@jadlog.com.br</t>
   </si>
   <si>
     <t>CO JAD SAO PAULO</t>
@@ -5403,6 +5403,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="41.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1259">
   <si>
     <t>Unidade</t>
   </si>
@@ -3782,6 +3782,12 @@
   </si>
   <si>
     <t>operacional@jadlog.com.br,marcos.pereira@jadlog.com.br</t>
+  </si>
+  <si>
+    <t>1B CO SOROCABA 01</t>
+  </si>
+  <si>
+    <t>CO SÃO PAULO 05</t>
   </si>
 </sst>
 </file>
@@ -9186,6 +9192,22 @@
         <v>1256</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1261">
   <si>
     <t>Unidade</t>
   </si>
@@ -3788,6 +3788,12 @@
   </si>
   <si>
     <t>CO SÃO PAULO 05</t>
+  </si>
+  <si>
+    <t>1B CO VALENCA 02</t>
+  </si>
+  <si>
+    <t>apollo.vlc@jadlog.com.br</t>
   </si>
 </sst>
 </file>
@@ -4043,6 +4049,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="50.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -9208,6 +9217,14 @@
         <v>673</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -100,7 +100,7 @@
     <t>CO JAD SALVADOR</t>
   </si>
   <si>
-    <t>thais.araujo@jadlog.com.br</t>
+    <t>jadsalvador@jadlog.com.br</t>
   </si>
   <si>
     <t>CO PAULO AFONSO 01</t>
@@ -4050,6 +4050,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="33.75"/>
     <col customWidth="1" min="2" max="2" width="50.13"/>
   </cols>
   <sheetData>

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1259">
   <si>
     <t>Unidade</t>
   </si>
@@ -223,9 +223,6 @@
     <t>catalao.cal@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO CATALAO 01 (operacional)</t>
-  </si>
-  <si>
     <t>CO FORMOSA 02</t>
   </si>
   <si>
@@ -664,7 +661,7 @@
     <t>aparecida.vcs@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO CAMPO GRANDE 02 / FL</t>
+    <t>CO CAMPO GRANDE 02 FL</t>
   </si>
   <si>
     <t>bertuzzo.cgr@jadlog.com.br</t>
@@ -1090,9 +1087,6 @@
     <t>ancasico.sgl@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO SAO GONCALO 01 (operacional)</t>
-  </si>
-  <si>
     <t>CO SAO JOAO DE MERITI 01</t>
   </si>
   <si>
@@ -1483,7 +1477,7 @@
     <t>gscargas.nvt@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO PALHOCA 02  (HB)</t>
+    <t>CO PALHOCA 02</t>
   </si>
   <si>
     <t>m2log.pha@jadlog.com.br</t>
@@ -1783,7 +1777,7 @@
     <t>yeslog.itu@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO ITUPEVA 01 (própria)</t>
+    <t>CO ITUPEVA 01</t>
   </si>
   <si>
     <t>jad.itp@jadlog.com.br</t>
@@ -2017,7 +2011,7 @@
     <t>prado.sjk@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO SAO PAULO 01 (DEPOT 1)</t>
+    <t>CO SAO PAULO 01</t>
   </si>
   <si>
     <t>d3r.sao@jadlog.com.br</t>
@@ -2029,13 +2023,13 @@
     <t>linares.sao@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO SAO PAULO 05 (DEPOT 2)</t>
+    <t>CO SAO PAULO 05</t>
   </si>
   <si>
     <t>vgm.sao@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO SAO PAULO 10 (INT)</t>
+    <t>CO SAO PAULO 10</t>
   </si>
   <si>
     <t>ellog.sao@jadlog.com.br</t>
@@ -2047,7 +2041,7 @@
     <t>dcs.sao@jadlog.com.br</t>
   </si>
   <si>
-    <t>CO SAO PAULO 16 (INT)</t>
+    <t>CO SAO PAULO 16</t>
   </si>
   <si>
     <t>turboexpress.sao@jadlog.com.br</t>
@@ -3496,7 +3490,7 @@
     <t>maringa@gritsch.com.br</t>
   </si>
   <si>
-    <t>ML PIRAQUARA 01</t>
+    <t>LM PIRAQUARA 01</t>
   </si>
   <si>
     <t>alvaro@londonlog.com.br</t>
@@ -4336,7 +4330,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
@@ -4344,3303 +4338,3303 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>7</v>
@@ -7648,1582 +7642,1582 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
   </sheetData>

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -100,7 +100,7 @@
     <t>CO JAD SALVADOR</t>
   </si>
   <si>
-    <t>jadsalvador@jadlog.com.br</t>
+    <t>jadsalvador@jadlog.com.br,renata.matos@jadlog.com.br,osmar.farias@jadlog.com.br,bruno.bomfim@jadlog.com.br</t>
   </si>
   <si>
     <t>CO PAULO AFONSO 01</t>
@@ -4045,7 +4045,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.75"/>
-    <col customWidth="1" min="2" max="2" width="50.13"/>
+    <col customWidth="1" min="2" max="2" width="86.75"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/emails_unidades.xlsx
+++ b/emails_unidades.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Página2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1631">
   <si>
     <t>Unidade</t>
   </si>
@@ -3788,6 +3789,1122 @@
   </si>
   <si>
     <t>apollo.vlc@jadlog.com.br</t>
+  </si>
+  <si>
+    <t>JE JOANOPOLIS 01</t>
+  </si>
+  <si>
+    <t>otaviobuni@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE ARACOIABA DA SERRA 01</t>
+  </si>
+  <si>
+    <t>5sindsol@gmail.com;contato@comodidadevirtual.com.br</t>
+  </si>
+  <si>
+    <t>JE CAPELA DO ALTO 01</t>
+  </si>
+  <si>
+    <t>Financeiro@pabimi.com.br</t>
+  </si>
+  <si>
+    <t>JE ADAMANTINA 01</t>
+  </si>
+  <si>
+    <t>marcelo@carolipe.com.br</t>
+  </si>
+  <si>
+    <t>JE PANORAMA 01</t>
+  </si>
+  <si>
+    <t>tarsiscamero@lubrifil.com.br</t>
+  </si>
+  <si>
+    <t>JE PRESIDENTE VENCESLAU 01</t>
+  </si>
+  <si>
+    <t>compras@belasartesconvites.com</t>
+  </si>
+  <si>
+    <t>JE PIUMHI 01</t>
+  </si>
+  <si>
+    <t>mercadocanastra@gmail.com</t>
+  </si>
+  <si>
+    <t>JE GUARAREMA 01</t>
+  </si>
+  <si>
+    <t>aguaboagma182@gmail.com</t>
+  </si>
+  <si>
+    <t>JE INDIANA 01</t>
+  </si>
+  <si>
+    <t>Jackelaram2@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PRAIA GRANDE 01</t>
+  </si>
+  <si>
+    <t>zoo.mania.pet.shop@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE VITORIA DO JARI 01</t>
+  </si>
+  <si>
+    <t>andersonlima834@gmail.com</t>
+  </si>
+  <si>
+    <t>JE BURITAMA 01</t>
+  </si>
+  <si>
+    <t>otica_vilela@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE PERUIBE 01</t>
+  </si>
+  <si>
+    <t>lolibressan@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE JANAUBA 01</t>
+  </si>
+  <si>
+    <t>EDUARDOELETRICAJAN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JE CAPAO BONITO 01</t>
+  </si>
+  <si>
+    <t>adrianoamil@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE PARAGUACU PAULISTA 01</t>
+  </si>
+  <si>
+    <t>CONTATO@TEREREMALICIA.COM</t>
+  </si>
+  <si>
+    <t>JE BERTIOGA 01</t>
+  </si>
+  <si>
+    <t>ricardojdorosario@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE PARAPUA 01</t>
+  </si>
+  <si>
+    <t>lumavilela@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>JE PONTAL DO PARANA 01</t>
+  </si>
+  <si>
+    <t>tlgcopiadora@gmail.com</t>
+  </si>
+  <si>
+    <t>JE GUARANI DAS MISSOES 01</t>
+  </si>
+  <si>
+    <t>eduardoagro@live.com</t>
+  </si>
+  <si>
+    <t>JE RIBEIRAO BONITO 01</t>
+  </si>
+  <si>
+    <t>ledamariasanches@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE TANABI 01</t>
+  </si>
+  <si>
+    <t>anaelucas1@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ANTONIO CARLOS 01</t>
+  </si>
+  <si>
+    <t>armarinhojunqueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE RANCHARIA 01</t>
+  </si>
+  <si>
+    <t>hermano_bio@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE ALFREDO VASCONCELOS 01</t>
+  </si>
+  <si>
+    <t>adersonra@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTIAGO 01</t>
+  </si>
+  <si>
+    <t>moisesviannamois@gmail.com</t>
+  </si>
+  <si>
+    <t>JE BURI 01</t>
+  </si>
+  <si>
+    <t>produza_978@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE OIAPOQUE 01</t>
+  </si>
+  <si>
+    <t>adrilene.barbosa@gmail.com</t>
+  </si>
+  <si>
+    <t>JE LEBON REGIS 01</t>
+  </si>
+  <si>
+    <t>naner.ollem1@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SALTO 01</t>
+  </si>
+  <si>
+    <t>jeremiasgomes@gmail.com</t>
+  </si>
+  <si>
+    <t>JE DRACENA 02</t>
+  </si>
+  <si>
+    <t>polo.cat.store@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SAO MATEUS DO SUL 01</t>
+  </si>
+  <si>
+    <t>juh_jatczak@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE IBIUNA 01</t>
+  </si>
+  <si>
+    <t>giovannamatos141214@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PONTAL 02</t>
+  </si>
+  <si>
+    <t>napissamiglio@icloud.com</t>
+  </si>
+  <si>
+    <t>JE CACAPAVA 01</t>
+  </si>
+  <si>
+    <t>cacapava@postnet.com.br</t>
+  </si>
+  <si>
+    <t>JE MANTENA 01</t>
+  </si>
+  <si>
+    <t>contatoreginaldoteixeira@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MORRETES 01</t>
+  </si>
+  <si>
+    <t>ciclosantosmts@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE NOVA IGUACU 01</t>
+  </si>
+  <si>
+    <t>papelariasonhomeu2018@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PORTO BELO 01</t>
+  </si>
+  <si>
+    <t>recepcaopb@lojastamoyo.com.br</t>
+  </si>
+  <si>
+    <t>JE POMPEU 01</t>
+  </si>
+  <si>
+    <t>marcella.10@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE IRACEMAPOLIS 01</t>
+  </si>
+  <si>
+    <t>vivanacalcados@gmail.com</t>
+  </si>
+  <si>
+    <t>JE BILAC 01</t>
+  </si>
+  <si>
+    <t>guilhermeguerbach@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CAPIVARI 01</t>
+  </si>
+  <si>
+    <t>compras@diccar.com.br</t>
+  </si>
+  <si>
+    <t>JE SANTANA DO RIACHO 01</t>
+  </si>
+  <si>
+    <t>jessicaferraz31@yahoo.com</t>
+  </si>
+  <si>
+    <t>JE TARTARUGALZINHO 01</t>
+  </si>
+  <si>
+    <t>garcesrocha898@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MONTE SANTO 01</t>
+  </si>
+  <si>
+    <t>lawrencemoreira@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE ITAPORANGA 01</t>
+  </si>
+  <si>
+    <t>lilianavic.ipo@jadlog.com.br</t>
+  </si>
+  <si>
+    <t>JE SANTA ISABEL 01</t>
+  </si>
+  <si>
+    <t>steph_bile@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE MEDIANEIRA 01</t>
+  </si>
+  <si>
+    <t>alanchistian91@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE MASSARANDUBA 01</t>
+  </si>
+  <si>
+    <t>garuttitur@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTA BARBARA DO PARA 01</t>
+  </si>
+  <si>
+    <t>ameta.expansaocomercial@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CAFELANDIA 01</t>
+  </si>
+  <si>
+    <t>renatogarbeloto2020@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MESQUITA 01</t>
+  </si>
+  <si>
+    <t>MARINHOEXPRESS22@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JE ALAGOINHAS 01</t>
+  </si>
+  <si>
+    <t>henriquebarbosa_12@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CAMPOS GERAIS 01</t>
+  </si>
+  <si>
+    <t>kellycristina82@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE PALMAS 01</t>
+  </si>
+  <si>
+    <t>enc.palmas@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CONSELHEIRO PENA 01</t>
+  </si>
+  <si>
+    <t>copeprintdigital@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CAPANEMA 01</t>
+  </si>
+  <si>
+    <t>bira_69_@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CAETE 01</t>
+  </si>
+  <si>
+    <t>lucianadiegueslu@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JAGUARIAIVA 01</t>
+  </si>
+  <si>
+    <t>contato@infotecn.com.br</t>
+  </si>
+  <si>
+    <t>JE GUARAMIRIM 01</t>
+  </si>
+  <si>
+    <t>ADM.BEMNATURAL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JE ITARARE 02</t>
+  </si>
+  <si>
+    <t>lashesecia@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SARZEDO 01</t>
+  </si>
+  <si>
+    <t>kellen.nascimento2014@gmail.com</t>
+  </si>
+  <si>
+    <t>JE NAZARE PAULISTA 01</t>
+  </si>
+  <si>
+    <t>matheus.1971@live.com</t>
+  </si>
+  <si>
+    <t>JE ITANHAEM 01</t>
+  </si>
+  <si>
+    <t>relojoariamachida@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE MATIAS BARBOSA 01</t>
+  </si>
+  <si>
+    <t>magazinejsoares20@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE BITURUNA 01</t>
+  </si>
+  <si>
+    <t>contato@orquidariorecanto.com</t>
+  </si>
+  <si>
+    <t>JE PALMEIRA DAS MISSOES 01</t>
+  </si>
+  <si>
+    <t>papelariamaica@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE Capão Redondo - SAO PAULO 01</t>
+  </si>
+  <si>
+    <t>pet.dogsandcats@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CRUZ DAS ALMAS 01</t>
+  </si>
+  <si>
+    <t>stokeembalagens@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ITAMONTE 01</t>
+  </si>
+  <si>
+    <t>pereiramotopecas@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTOS DUMONT 01</t>
+  </si>
+  <si>
+    <t>cristinaelizane712@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PIRANGUINHO 02</t>
+  </si>
+  <si>
+    <t>marditudo@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SENGES 01</t>
+  </si>
+  <si>
+    <t>vingrasabrina@gmail.com</t>
+  </si>
+  <si>
+    <t>JE TUIUTI 01</t>
+  </si>
+  <si>
+    <t>andersongodoy.tuiuti@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE FAMA 01</t>
+  </si>
+  <si>
+    <t>drugstoredowantuil@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTO AMARO 01</t>
+  </si>
+  <si>
+    <t>deciodias2013@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CAFELANDIA 02</t>
+  </si>
+  <si>
+    <t>garagemdascopias.caf@outlook.com</t>
+  </si>
+  <si>
+    <t>JE NOVA CAMPINA 01</t>
+  </si>
+  <si>
+    <t>presente.pri@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PRADOS 01</t>
+  </si>
+  <si>
+    <t>italoveronaglx8@gmail.com</t>
+  </si>
+  <si>
+    <t>JE BALNEARIO BARRA DO SUL 01</t>
+  </si>
+  <si>
+    <t>tfserino@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JAMBEIRO 01</t>
+  </si>
+  <si>
+    <t>despachanteosaojorge@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CERES 01</t>
+  </si>
+  <si>
+    <t>leonardonoronha08@outlook.com</t>
+  </si>
+  <si>
+    <t>JE APIAI 02</t>
+  </si>
+  <si>
+    <t>agrochicoprodutos@uol.com.br</t>
+  </si>
+  <si>
+    <t>JE RIBEIRAO BRANCO 01</t>
+  </si>
+  <si>
+    <t>jheimisonkauan@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SERRINHA 01</t>
+  </si>
+  <si>
+    <t>cris_araujo-27@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CAPITOLIO 01</t>
+  </si>
+  <si>
+    <t>spacohg@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PINHALZINHO 01</t>
+  </si>
+  <si>
+    <t>rincaoparabolicas@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE GUARATUBA 01</t>
+  </si>
+  <si>
+    <t>matheusmafa@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE JOSE BONIFACIO 03</t>
+  </si>
+  <si>
+    <t>guilhermecaldeirahv@gmail.com</t>
+  </si>
+  <si>
+    <t>JE RESENDE 01</t>
+  </si>
+  <si>
+    <t>keyla.batista@sommarlogistica.com.br</t>
+  </si>
+  <si>
+    <t>JE VARGEM GRANDE PAULISTA 01</t>
+  </si>
+  <si>
+    <t>comercial@mixvisao.com.br</t>
+  </si>
+  <si>
+    <t>JE SANTA BRANCA 01</t>
+  </si>
+  <si>
+    <t>vtechcelleletronicos@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MONTEIRO LOBATO 02</t>
+  </si>
+  <si>
+    <t>juliobill21@gmail.com</t>
+  </si>
+  <si>
+    <t>JE NANUQUE 01</t>
+  </si>
+  <si>
+    <t>italotransporte@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE AGUDOS 01</t>
+  </si>
+  <si>
+    <t>and2_oliveira@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>JE CABREUVA 01</t>
+  </si>
+  <si>
+    <t>pandorapapelariacabreuva@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE REDENCAO DA SERRA 01</t>
+  </si>
+  <si>
+    <t>marcos_mn@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>JE TERENOS 01</t>
+  </si>
+  <si>
+    <t>ricardomendoncajunior@gmail.com</t>
+  </si>
+  <si>
+    <t>JE VITORIA DE SANTO ANTAO 01</t>
+  </si>
+  <si>
+    <t>joelmagabi@gmail.com</t>
+  </si>
+  <si>
+    <t>JE RESENDE 04</t>
+  </si>
+  <si>
+    <t>papeliscoadm@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ITAQUI 02</t>
+  </si>
+  <si>
+    <t>jblogistica2022@gmail.com</t>
+  </si>
+  <si>
+    <t>JE POTIRENDABA 01</t>
+  </si>
+  <si>
+    <t>softdigitalinformatica@gmail.com</t>
+  </si>
+  <si>
+    <t>JE RESENDE 03</t>
+  </si>
+  <si>
+    <t>angelomota@wolftech.com.br</t>
+  </si>
+  <si>
+    <t>JE OLIMPIA 01</t>
+  </si>
+  <si>
+    <t>lojamarioemarias@gmail.com</t>
+  </si>
+  <si>
+    <t>JE NOVA GRANADA 01</t>
+  </si>
+  <si>
+    <t>diego.saobenedito@outlook.com;escsbenedito@granadanet.com.br</t>
+  </si>
+  <si>
+    <t>JE Jardim Soraia - SAO PAULO 02</t>
+  </si>
+  <si>
+    <t>leonardosantana635@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ARCOS 02</t>
+  </si>
+  <si>
+    <t>guilhermetalissin@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE JARDIM 02</t>
+  </si>
+  <si>
+    <t>rodrigoseike@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MIRANDA 01</t>
+  </si>
+  <si>
+    <t>edlm.consertos@gmail.com</t>
+  </si>
+  <si>
+    <t>JE RIBAS DO RIO PARDO 01</t>
+  </si>
+  <si>
+    <t>evelynbaeta@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SAO PEDRO DO SUL 01</t>
+  </si>
+  <si>
+    <t>manoelabrezolin@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PRESIDENTE EPITACIO 03</t>
+  </si>
+  <si>
+    <t>disfrutar.diandrade@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CHAVANTES 01</t>
+  </si>
+  <si>
+    <t>esterfakhouri@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE EMBU DAS ARTES 01</t>
+  </si>
+  <si>
+    <t>ma1con.sant0s@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE RIBEIRAO PIRES 01</t>
+  </si>
+  <si>
+    <t>multicopiasmatriz@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE TAGUAI 01</t>
+  </si>
+  <si>
+    <t>thaisniele13@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JEQUIE 01</t>
+  </si>
+  <si>
+    <t>rosecopiadora2@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PIRAJUI 01</t>
+  </si>
+  <si>
+    <t>henrique.mr1@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CORUMBA 03</t>
+  </si>
+  <si>
+    <t>forca3artigomilitar@gmail.com</t>
+  </si>
+  <si>
+    <t>JE FRANCISCO MORATO 01</t>
+  </si>
+  <si>
+    <t>dsom4p@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MAIRIPORA 01</t>
+  </si>
+  <si>
+    <t>contato.mairiprint@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ITAPEMIRIM 01</t>
+  </si>
+  <si>
+    <t>NEWINFORMATICA.ITAIPAVA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>JE CUBATAO 01</t>
+  </si>
+  <si>
+    <t>digitecinfo21@gmail.com</t>
+  </si>
+  <si>
+    <t>JE GRAVATA 01</t>
+  </si>
+  <si>
+    <t>isanetenvios@gmail.com</t>
+  </si>
+  <si>
+    <t>JE TAMANDARE 01</t>
+  </si>
+  <si>
+    <t>serv_computadores@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SOCORRO 01</t>
+  </si>
+  <si>
+    <t>iago.vhl@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SAO FRANCISCO XAVIER 01</t>
+  </si>
+  <si>
+    <t>rockettecnology@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CORDEIROPOLIS 01</t>
+  </si>
+  <si>
+    <t>eduardolima4300@gmail.com</t>
+  </si>
+  <si>
+    <t>JE EMBU GUACU 01</t>
+  </si>
+  <si>
+    <t>driano.2410@gmail.com</t>
+  </si>
+  <si>
+    <t>JE DORES DE CAMPOS 01</t>
+  </si>
+  <si>
+    <t>papelariaveloso1@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CONCHAS 01</t>
+  </si>
+  <si>
+    <t>marcelzuliani@icloud.com</t>
+  </si>
+  <si>
+    <t>JE JUQUITIBA 01</t>
+  </si>
+  <si>
+    <t>damascenonaturais@gmail.com</t>
+  </si>
+  <si>
+    <t>JE LARANJAL PAULISTA 01</t>
+  </si>
+  <si>
+    <t>paulocesar.cardia@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ARAUJOS 01</t>
+  </si>
+  <si>
+    <t>matheusfernandes79@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE PORTO SEGURO 01</t>
+  </si>
+  <si>
+    <t>clubtechcell@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SAO JOSE DA COROA GRANDE 01</t>
+  </si>
+  <si>
+    <t>israelrmaster@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CHA GRANDE 01</t>
+  </si>
+  <si>
+    <t>vallterssantoss@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JEQUITINHONHA 01</t>
+  </si>
+  <si>
+    <t>dulamendes@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE VALPARAISO 01</t>
+  </si>
+  <si>
+    <t>mirandacarolinaa@gmail.com</t>
+  </si>
+  <si>
+    <t>JE TAMBAU 01</t>
+  </si>
+  <si>
+    <t>angelomfaria@terra.com.br</t>
+  </si>
+  <si>
+    <t>JE PARIQUERA-ACU 01</t>
+  </si>
+  <si>
+    <t>papelariacoppi@outlook.com</t>
+  </si>
+  <si>
+    <t>JE PIRAJU 01</t>
+  </si>
+  <si>
+    <t>interlichia@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTA RITA DO PASSA QUATRO 01</t>
+  </si>
+  <si>
+    <t>califasperfumaria@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PEDRO LEOPOLDO 01</t>
+  </si>
+  <si>
+    <t>kenia_mucuta@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE JEQUIE 02</t>
+  </si>
+  <si>
+    <t>ariananmeira@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MORRO AGUDO 01</t>
+  </si>
+  <si>
+    <t>cantinhonovidades.96@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JEQUIE 03</t>
+  </si>
+  <si>
+    <t>gel_htinha3@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE MIRANDOPOLIS 01</t>
+  </si>
+  <si>
+    <t>bonita.biju@live.com</t>
+  </si>
+  <si>
+    <t>JE MIRACATU 01</t>
+  </si>
+  <si>
+    <t>instalacoesdg7@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ITATINGA 01</t>
+  </si>
+  <si>
+    <t>nicolaumamud2014@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CASSIA 01</t>
+  </si>
+  <si>
+    <t>guilhermekaller.gk@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JACAREI 01</t>
+  </si>
+  <si>
+    <t>jadlogjacareisp@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PAULICEIA 01</t>
+  </si>
+  <si>
+    <t>diqfezz@outlook.com</t>
+  </si>
+  <si>
+    <t>JE PALMITAL 01</t>
+  </si>
+  <si>
+    <t>oticaprieto@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE SANTA ROSA DE VITERBO 01</t>
+  </si>
+  <si>
+    <t>brun8andrade@gmail.com;eduardo.moimaz@uol.com.br</t>
+  </si>
+  <si>
+    <t>JE SANTA CRUZ DAS PALMEIRAS </t>
+  </si>
+  <si>
+    <t>lalgodaodoce@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ASCURRA 01</t>
+  </si>
+  <si>
+    <t>lojamontanha1@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE CONCHAL 01</t>
+  </si>
+  <si>
+    <t>ricardoferoldi@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JAÇANÃ 01</t>
+  </si>
+  <si>
+    <t>brincodeprincesa@yahoo.com</t>
+  </si>
+  <si>
+    <t>JE OSWALDO CRUZ 01</t>
+  </si>
+  <si>
+    <t>ramosstephany258@gmail.com | importsrsv@gmail.com</t>
+  </si>
+  <si>
+    <t>JE JACAREPAGUA 01</t>
+  </si>
+  <si>
+    <t>marcela@carteiroamigo.com.br</t>
+  </si>
+  <si>
+    <t>JE ROCINHA - Rio de Janeiro 01</t>
+  </si>
+  <si>
+    <t>JE GUAPIAÇÚ 01</t>
+  </si>
+  <si>
+    <t>alana_flavia@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE ARARAS 04</t>
+  </si>
+  <si>
+    <t>brinkbrinquedosebaby@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ARARAS 02</t>
+  </si>
+  <si>
+    <t>diadcosmeticos@yahoo.com</t>
+  </si>
+  <si>
+    <t>JE CARMO DO CAJURU 01</t>
+  </si>
+  <si>
+    <t>papelariaarcoiris1916@gmail.com</t>
+  </si>
+  <si>
+    <t>JE GUARUJA 06</t>
+  </si>
+  <si>
+    <t>planetanimal.gja@gmail.com</t>
+  </si>
+  <si>
+    <t>JE LEME 02</t>
+  </si>
+  <si>
+    <t>contato@oficinadosbrinquedos.com.br</t>
+  </si>
+  <si>
+    <t>JE JARINU 02</t>
+  </si>
+  <si>
+    <t>moreiradaniel1984@gmail.com</t>
+  </si>
+  <si>
+    <t>JE VILA MEDEIROS 01</t>
+  </si>
+  <si>
+    <t>ligia.oliveira34@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>JE POTIRENDABA 02</t>
+  </si>
+  <si>
+    <t>cleucimar9@gmail.com</t>
+  </si>
+  <si>
+    <t>JE LEME 01</t>
+  </si>
+  <si>
+    <t>dany_picolinni@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE GUARUJA 04</t>
+  </si>
+  <si>
+    <t>bruno.macedo91@icloud.com</t>
+  </si>
+  <si>
+    <t>JE BAEPENDI 02</t>
+  </si>
+  <si>
+    <t>imperiodoartesanato91@gmail.com</t>
+  </si>
+  <si>
+    <t>JE POMPÉIA 01</t>
+  </si>
+  <si>
+    <t>su.sgq@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE TAGUAÍ 02</t>
+  </si>
+  <si>
+    <t>graciene1508@outlook.com</t>
+  </si>
+  <si>
+    <t>JE TAGUAI 02</t>
+  </si>
+  <si>
+    <t>graciene1508@gmail.com</t>
+  </si>
+  <si>
+    <t>JE SOBRADINHO 01</t>
+  </si>
+  <si>
+    <t>financeirodluxpapelaria@gmail.com</t>
+  </si>
+  <si>
+    <t>JE ITANHAEM 03</t>
+  </si>
+  <si>
+    <t>oticamachida@hotmail.com; relojoariamachida@hotmail.com</t>
+  </si>
+  <si>
+    <t>JE MOGI GUAÇU 03</t>
+  </si>
+  <si>
+    <t>ribeirorosana42@gmail.com</t>
+  </si>
+  <si>
+    <t>JE MOGI GUAÇU 02</t>
+  </si>
+  <si>
+    <t>tudopersonalizado22@gmail.com</t>
+  </si>
+  <si>
+    <t>JE PERDIGÃO 01</t>
+  </si>
+  <si>
+    <t>ademir0101ddobarra@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CRUZ DAS ALMAS 02</t>
+  </si>
+  <si>
+    <t>stokeenvios@gmail.com</t>
+  </si>
+  <si>
+    <t>JE CAPÃO BONITO 02</t>
+  </si>
+  <si>
+    <t>marisamigray@hotmail.com</t>
+  </si>
+  <si>
+    <t>contato@comodidadevirtual.com.br</t>
+  </si>
+  <si>
+    <t>escsbenedito@granadanet.com.br</t>
+  </si>
+  <si>
+    <t>eduardo.moimaz@uol.com.br</t>
   </si>
 </sst>
 </file>
@@ -3838,6 +4955,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9220,6 +10345,3006 @@
         <v>1258</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.75"/>
+    <col customWidth="1" min="2" max="2" width="46.5"/>
+    <col customWidth="1" min="3" max="3" width="27.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
